--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{307F1E9F-D67F-498C-AA9B-C0F5CB27C347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="12795"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -69,11 +75,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>memoly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +193,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -182,11 +206,1537 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>726149</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233959</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323362CB-AE06-40B8-A472-D168C604618F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3710649" y="1695016"/>
+          <a:ext cx="815910" cy="396367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118573</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F4999E-8321-43A5-A3DC-326EAC972F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5026749" y="1687444"/>
+          <a:ext cx="813416" cy="401801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204014</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132287</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9513EEF-AE6F-41AB-B364-4F6676F33253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6337367" y="1687444"/>
+          <a:ext cx="1153449" cy="401801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16898</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D86D7C-E70C-4D28-818C-1323799F2E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7988016" y="1687444"/>
+          <a:ext cx="1153450" cy="401801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110174</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228947</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7701EBBC-0EF0-4C43-899B-52E1FCAD22A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2074939" y="1687444"/>
+          <a:ext cx="1142243" cy="401801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>リセット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636443</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABDED3B-46C8-4C09-87FF-14D9792AD963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301625" y="1690245"/>
+          <a:ext cx="1276112" cy="396198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>リセット完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233959</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D12EB87-CE29-4A3D-A822-F7CEBF297A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4529547" y="1888344"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323606</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154DF032-62BB-445F-AB47-00FD2CA16EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844371" y="1888344"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144312</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線矢印コネクタ 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D898A973-5263-4295-9C95-D3822E17CC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7502841" y="1888344"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738631</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0408D6A-9678-4E01-B139-E805D46AD234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3229664" y="1888344"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>629901</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103632</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2AB75D-7363-4597-8EC9-95DAA86C7B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1571195" y="1888344"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939681</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D8528-669F-4C1B-86D3-9CAD69562E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="939681" y="1165412"/>
+          <a:ext cx="1613" cy="524833"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>928148</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D04103F-DCC8-468A-AA4E-016C34381F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="928148" y="1183198"/>
+          <a:ext cx="7663029" cy="1378"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596033</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597646</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDE4B65-BBC8-4565-BD23-35A692B30531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8530772" y="1171584"/>
+          <a:ext cx="1613" cy="528731"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>726149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233959</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1E6F28-67D2-4981-AFDC-79AFE1F4A2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3710649" y="2634816"/>
+          <a:ext cx="815910" cy="396367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>マップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1134104</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1134104</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AD99EA-B71B-4E05-947C-AD0C9C5FAF59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="139" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4118604" y="2091383"/>
+          <a:ext cx="0" cy="543433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1134104</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1136650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>113866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線矢印コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD69B3AA-2F79-4778-BF2A-17F64F0407EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4118604" y="1206500"/>
+          <a:ext cx="2546" cy="494866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1036986</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1036986</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D188EA-78A8-4FF1-89D0-93174D36C917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4025221" y="3064054"/>
+          <a:ext cx="0" cy="541191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1208810</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1208810</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線矢印コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1981EF8-6155-49E9-B228-F6F3CA0EC36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4197045" y="3064054"/>
+          <a:ext cx="0" cy="541191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59766</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261472</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="153" name="グループ化 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD01CC53-198F-4A6A-8B0B-C7BACC6A9791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3041505" y="3645322"/>
+          <a:ext cx="2117750" cy="1310276"/>
+          <a:chOff x="3055471" y="3660588"/>
+          <a:chExt cx="2121647" cy="1299883"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FEB048-2E5E-4AD6-B4D2-615B2F2DC62A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3055471" y="3660588"/>
+            <a:ext cx="2121647" cy="1299883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="151" name="グループ化 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56992833-48B6-46E0-A8A9-CDACF8B628E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3228796" y="3799480"/>
+            <a:ext cx="1760192" cy="988786"/>
+            <a:chOff x="3527620" y="3739715"/>
+            <a:chExt cx="1760192" cy="988786"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="147" name="テキスト ボックス 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA99AB-06A6-46D0-BAF0-369B509CFA2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3527620" y="3739715"/>
+              <a:ext cx="815163" cy="394873"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>マップ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="148" name="テキスト ボックス 147">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E9B82-0F24-4682-9484-49BBD93E2055}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4472649" y="3739715"/>
+              <a:ext cx="815163" cy="394873"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>マップ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="テキスト ボックス 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD7EE32-A6BE-40A0-AFB4-E12BAE04E298}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4472649" y="4333628"/>
+              <a:ext cx="815163" cy="394873"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>マップ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="150" name="テキスト ボックス 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743721E-8FA0-4C72-9FFD-B20E0251BF0D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3527620" y="4333628"/>
+              <a:ext cx="815163" cy="394873"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:t>マップ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -203,7 +1753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -250,7 +1806,13 @@
     <xdr:ext cx="1399101" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -307,7 +1869,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -357,7 +1925,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -407,7 +1981,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -458,7 +2038,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -498,7 +2084,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +2126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,9 +2159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,6 +2211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,53 +2403,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5">
+        <v>45082</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>45082</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -838,18 +2470,19 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,12 +2491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{307F1E9F-D67F-498C-AA9B-C0F5CB27C347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C2A75-8436-47C0-9D9F-855CDA563DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1553,7 +1553,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>マップ</a:t>
+                <a:t>リスト</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1610,7 +1610,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>マップ</a:t>
+                <a:t>称号</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1667,7 +1667,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>マップ</a:t>
+                <a:t>使い方</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1723,8 +1723,8 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>マップ</a:t>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ストーリー</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C2A75-8436-47C0-9D9F-855CDA563DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FC35D-6B93-4693-9F2B-6A2F2D811A37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,11 +568,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>PW</a:t>
+            <a:t>ID</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>リセット</a:t>
+            <a:t>入力画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -877,16 +877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>629901</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>103632</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140227</xdr:rowOff>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>680322</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -897,12 +897,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1571195" y="1888344"/>
-          <a:ext cx="497202" cy="1"/>
+          <a:off x="2639391" y="2099638"/>
+          <a:ext cx="1148" cy="528710"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1423,8 +1425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3041505" y="3645322"/>
-          <a:ext cx="2117750" cy="1310276"/>
+          <a:off x="3053337" y="3596021"/>
+          <a:ext cx="2115778" cy="1291344"/>
           <a:chOff x="3055471" y="3660588"/>
           <a:chExt cx="2121647" cy="1299883"/>
         </a:xfrm>
@@ -1733,6 +1735,447 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104652</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>223425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D021B2F4-1316-46A2-87A5-FBCB07B2093A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2064869" y="2649201"/>
+          <a:ext cx="1140295" cy="405698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0"/>
+            <a:t>秘密の質問入力画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103631</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3531C8-DF30-49A6-97EA-D7B4EC98E5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1566646" y="2845879"/>
+          <a:ext cx="497202" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>424912</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>626511</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F411BD-7703-4507-8B27-324807D3A0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="424912" y="2643680"/>
+          <a:ext cx="1140295" cy="405698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0"/>
+            <a:t>パスワード入力画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>932722</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>932722</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240CF890-4E5A-4289-A5A8-C641A3E21A53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="932722" y="2088330"/>
+          <a:ext cx="0" cy="545089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>475036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1016227</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C2F76F-25A3-4EF9-A394-E9E18B3C677A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2710397" y="3639291"/>
+          <a:ext cx="0" cy="541191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>460096</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1001287</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A86A940-F44C-4EE7-B64D-D9C5C405233B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2695457" y="3803645"/>
+          <a:ext cx="0" cy="541191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224182</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFBCE64-8737-453A-9DE9-CEDAE16356CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1165476" y="3785380"/>
+          <a:ext cx="1142243" cy="403100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>絞り込み画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2406,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:H33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FC35D-6B93-4693-9F2B-6A2F2D811A37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6381AF-1B63-4AE3-B201-A780F19197A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,6 +202,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006C31"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -215,6 +220,568 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>934357</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D75D4FE-7784-48BC-98FB-BAAC9E210C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2902857" y="3383644"/>
+          <a:ext cx="2431143" cy="2068286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59766</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261472</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FEB048-2E5E-4AD6-B4D2-615B2F2DC62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053337" y="3596021"/>
+          <a:ext cx="2115778" cy="1291344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1175027</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73863</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="テキスト ボックス 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E9B82-0F24-4682-9484-49BBD93E2055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4168598" y="3734001"/>
+          <a:ext cx="812908" cy="392279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>称号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1175027</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73863</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="テキスト ボックス 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD7EE32-A6BE-40A0-AFB4-E12BAE04E298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4168598" y="4324013"/>
+          <a:ext cx="812908" cy="392279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>使い方</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>232612</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1045520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="テキスト ボックス 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743721E-8FA0-4C72-9FFD-B20E0251BF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3226183" y="4324013"/>
+          <a:ext cx="812908" cy="392279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストーリー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72570</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1124857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4112C202-68C6-4C82-832D-DDA6631FCD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1015999" y="3429001"/>
+          <a:ext cx="3102429" cy="852714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="15000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>562429</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B99079D-B0F6-4A85-A8E7-CCC65BE32A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127001" y="1406073"/>
+          <a:ext cx="3428999" cy="1895927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390073</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433AE4A1-AFE0-49C6-9422-DD3D967C77BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4689930" y="1524001"/>
+          <a:ext cx="4789714" cy="1215571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1401,342 +1968,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>59766</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261472</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="153" name="グループ化 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD01CC53-198F-4A6A-8B0B-C7BACC6A9791}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3053337" y="3596021"/>
-          <a:ext cx="2115778" cy="1291344"/>
-          <a:chOff x="3055471" y="3660588"/>
-          <a:chExt cx="2121647" cy="1299883"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="152" name="正方形/長方形 151">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FEB048-2E5E-4AD6-B4D2-615B2F2DC62A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3055471" y="3660588"/>
-            <a:ext cx="2121647" cy="1299883"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="151" name="グループ化 150">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56992833-48B6-46E0-A8A9-CDACF8B628E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3228796" y="3799480"/>
-            <a:ext cx="1760192" cy="988786"/>
-            <a:chOff x="3527620" y="3739715"/>
-            <a:chExt cx="1760192" cy="988786"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="147" name="テキスト ボックス 146">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA99AB-06A6-46D0-BAF0-369B509CFA2E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="3527620" y="3739715"/>
-              <a:ext cx="815163" cy="394873"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="38100" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>リスト</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="148" name="テキスト ボックス 147">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E9B82-0F24-4682-9484-49BBD93E2055}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="4472649" y="3739715"/>
-              <a:ext cx="815163" cy="394873"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="38100" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>称号</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="149" name="テキスト ボックス 148">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD7EE32-A6BE-40A0-AFB4-E12BAE04E298}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="4472649" y="4333628"/>
-              <a:ext cx="815163" cy="394873"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="38100" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-                <a:t>使い方</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="150" name="テキスト ボックス 149">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743721E-8FA0-4C72-9FFD-B20E0251BF0D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="3527620" y="4333628"/>
-              <a:ext cx="815163" cy="394873"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="38100" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ストーリー</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104652</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -2018,7 +2249,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2710397" y="3639291"/>
+          <a:off x="2714132" y="3609942"/>
           <a:ext cx="0" cy="541191"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2170,6 +2401,350 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
             <a:t>絞り込み画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>232612</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1045520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="テキスト ボックス 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA99AB-06A6-46D0-BAF0-369B509CFA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3226183" y="3734001"/>
+          <a:ext cx="812908" cy="392279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>リスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1026F172-03D0-4B3A-9585-604E3E4C9C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="961571" y="2140857"/>
+          <a:ext cx="2304143" cy="780143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="006C31"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワードリセット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD066A5-75FF-4512-9C84-53D34429734F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6077856" y="2195286"/>
+          <a:ext cx="2304143" cy="780143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608DD714-3164-4617-83BA-C840F8F0F108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3646713" y="4898572"/>
+          <a:ext cx="2304143" cy="780143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サブ機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226784</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480785</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A102AF-54E8-497D-B488-5B21B0C18F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1170213" y="3374572"/>
+          <a:ext cx="2304143" cy="780143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>しぼりこみ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2849,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6381AF-1B63-4AE3-B201-A780F19197A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C59E1D-4C7B-4DA0-A357-219A17C2FBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
-    <sheet name="アイテム" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -95,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +112,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -181,9 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +198,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,353 +2756,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="752475" y="400050"/>
-          <a:ext cx="2190750" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1399101" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248025" y="504825"/>
-          <a:ext cx="1399101" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面（大きさは自由）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781050" y="1295400"/>
-          <a:ext cx="923925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="1704975"/>
-          <a:ext cx="914400" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="2228850"/>
-          <a:ext cx="923925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="819150" y="2638425"/>
-          <a:ext cx="914400" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3424,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3436,51 +3096,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45082</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>45082</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3490,33 +3150,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
+++ b/doc/画面遷移図/画面遷移図_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C59E1D-4C7B-4DA0-A357-219A17C2FBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF8A09-6A15-4295-9343-D5708DB22376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,74 +583,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>72570</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1124857</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4112C202-68C6-4C82-832D-DDA6631FCD56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1015999" y="3429001"/>
-          <a:ext cx="3102429" cy="852714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000">
-            <a:alpha val="15000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127001</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2232,190 +2164,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>475036</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1016227</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25181</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C2F76F-25A3-4EF9-A394-E9E18B3C677A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2714132" y="3609942"/>
-          <a:ext cx="0" cy="541191"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>460096</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1001287</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A86A940-F44C-4EE7-B64D-D9C5C405233B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2695457" y="3803645"/>
-          <a:ext cx="0" cy="541191"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>224182</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342954</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139421</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFBCE64-8737-453A-9DE9-CEDAE16356CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1165476" y="3785380"/>
-          <a:ext cx="1142243" cy="403100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>絞り込み画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>232612</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -2684,74 +2432,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>サブ機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>226784</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480785</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A102AF-54E8-497D-B488-5B21B0C18F88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1170213" y="3374572"/>
-          <a:ext cx="2304143" cy="780143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>しぼりこみ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3084,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
